--- a/Agile_Template_v0.1.xlsx
+++ b/Agile_Template_v0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyath\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6831290E-AF40-428F-9AD7-B89019F3D4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02BFE2E-85B1-4F9C-B7CA-442A28225D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,7 +306,7 @@
     <t>completed</t>
   </si>
   <si>
-    <t>madhav</t>
+    <t>NYATHARI MADHAV</t>
   </si>
 </sst>
 </file>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1138,7 @@
     <col min="4" max="4" width="45.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
